--- a/work_exam_score_retrieve/exams/exam_50621835.xlsx
+++ b/work_exam_score_retrieve/exams/exam_50621835.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD06953-28D4-4244-8B73-8D0690A242E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4250" yWindow="7140" windowWidth="16780" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="212">
   <si>
     <t>personid</t>
   </si>
@@ -31,24 +32,6 @@
     <t>课程</t>
   </si>
   <si>
-    <t>1877281</t>
-  </si>
-  <si>
-    <t>1925232</t>
-  </si>
-  <si>
-    <t>1976006</t>
-  </si>
-  <si>
-    <t>2014762</t>
-  </si>
-  <si>
-    <t>2135470</t>
-  </si>
-  <si>
-    <t>2293149</t>
-  </si>
-  <si>
     <t>197685024</t>
   </si>
   <si>
@@ -650,13 +633,31 @@
   </si>
   <si>
     <t>孟庆基</t>
+  </si>
+  <si>
+    <t>微分学的基本定理</t>
+  </si>
+  <si>
+    <t>导数的应用</t>
+  </si>
+  <si>
+    <t>积分-1</t>
+  </si>
+  <si>
+    <t>积分-2</t>
+  </si>
+  <si>
+    <t>积分法</t>
+  </si>
+  <si>
+    <t>导数与极限</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,125 +692,133 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -865,8 +874,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -888,8 +897,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -905,8 +914,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -943,23 +952,25 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,39 +987,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1023,97 +1034,97 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K2">
         <v>60</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <v>80</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>80</v>
-      </c>
-      <c r="I4">
-        <v>60</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1128,27 +1139,27 @@
         <v>40</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K5">
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1163,27 +1174,27 @@
         <v>60</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K6">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -1204,21 +1215,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -1239,21 +1250,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1268,27 +1279,27 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1303,27 +1314,27 @@
         <v>60</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K10">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1344,21 +1355,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1373,27 +1384,27 @@
         <v>40</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>100</v>
@@ -1408,27 +1419,27 @@
         <v>40</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -1449,21 +1460,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -1478,27 +1489,27 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>100</v>
@@ -1519,21 +1530,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -1548,132 +1559,132 @@
         <v>40</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K17">
         <v>100</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="I18">
-        <v>80</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>80</v>
-      </c>
-      <c r="I19">
-        <v>80</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>80</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1694,21 +1705,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>100</v>
@@ -1729,21 +1740,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -1764,21 +1775,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -1793,27 +1804,27 @@
         <v>80</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K24">
         <v>60</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -1828,27 +1839,27 @@
         <v>60</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K25">
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>40</v>
@@ -1863,27 +1874,27 @@
         <v>60</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K26">
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -1898,27 +1909,27 @@
         <v>40</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K27">
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>60</v>
@@ -1933,307 +1944,307 @@
         <v>60</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K28">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>60</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>80</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>80</v>
-      </c>
-      <c r="H29">
-        <v>100</v>
-      </c>
-      <c r="I29">
-        <v>60</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="K29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>60</v>
-      </c>
-      <c r="H30">
-        <v>100</v>
-      </c>
-      <c r="I30">
-        <v>80</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-      <c r="K30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <v>80</v>
+      </c>
+      <c r="I33">
+        <v>80</v>
+      </c>
+      <c r="J33">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31">
-        <v>80</v>
-      </c>
-      <c r="G31">
-        <v>60</v>
-      </c>
-      <c r="H31">
-        <v>100</v>
-      </c>
-      <c r="I31">
-        <v>100</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32">
-        <v>80</v>
-      </c>
-      <c r="G32">
-        <v>100</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="J32">
-        <v>100</v>
-      </c>
-      <c r="K32">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>80</v>
+      </c>
+      <c r="J35">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33">
-        <v>100</v>
-      </c>
-      <c r="G33">
-        <v>60</v>
-      </c>
-      <c r="H33">
-        <v>80</v>
-      </c>
-      <c r="I33">
-        <v>80</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-      <c r="G34">
-        <v>80</v>
-      </c>
-      <c r="H34">
-        <v>100</v>
-      </c>
-      <c r="I34">
-        <v>80</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>60</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-      <c r="H35">
-        <v>80</v>
-      </c>
-      <c r="I35">
-        <v>80</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36">
-        <v>80</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36">
-        <v>80</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -2248,27 +2259,27 @@
         <v>20</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K37">
         <v>100</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2283,27 +2294,27 @@
         <v>40</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K38">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>80</v>
@@ -2318,27 +2329,27 @@
         <v>100</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K39">
         <v>100</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>100</v>
@@ -2359,196 +2370,196 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K41">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>100</v>
-      </c>
-      <c r="I41">
-        <v>60</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>94</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42">
-        <v>80</v>
-      </c>
-      <c r="H42">
-        <v>80</v>
-      </c>
-      <c r="I42">
-        <v>60</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>80</v>
+      </c>
+      <c r="G45">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>80</v>
+      </c>
+      <c r="I45">
+        <v>80</v>
+      </c>
+      <c r="J45">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-      <c r="H43">
-        <v>100</v>
-      </c>
-      <c r="I43">
-        <v>60</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44">
-        <v>80</v>
-      </c>
-      <c r="H44">
-        <v>80</v>
-      </c>
-      <c r="I44">
-        <v>60</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45">
-        <v>80</v>
-      </c>
-      <c r="G45">
-        <v>80</v>
-      </c>
-      <c r="H45">
-        <v>80</v>
-      </c>
-      <c r="I45">
-        <v>80</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F46">
         <v>100</v>
@@ -2563,27 +2574,27 @@
         <v>40</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K46">
         <v>40</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F47">
         <v>100</v>
@@ -2598,27 +2609,27 @@
         <v>40</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K47">
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>60</v>
@@ -2633,27 +2644,27 @@
         <v>100</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K48">
         <v>60</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>100</v>
@@ -2674,21 +2685,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>100</v>
@@ -2703,27 +2714,27 @@
         <v>100</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K50">
         <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F51">
         <v>100</v>
@@ -2738,27 +2749,27 @@
         <v>60</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K51">
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -2779,126 +2790,126 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>80</v>
+      </c>
+      <c r="I53">
+        <v>60</v>
+      </c>
+      <c r="J53">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>80</v>
+      </c>
+      <c r="J54">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+      <c r="H55">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>116</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>100</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-      <c r="H53">
-        <v>80</v>
-      </c>
-      <c r="I53">
-        <v>60</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54">
-        <v>100</v>
-      </c>
-      <c r="G54">
-        <v>100</v>
-      </c>
-      <c r="H54">
-        <v>100</v>
-      </c>
-      <c r="I54">
-        <v>80</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55">
-        <v>60</v>
-      </c>
-      <c r="G55">
-        <v>80</v>
-      </c>
-      <c r="H55">
-        <v>60</v>
-      </c>
-      <c r="I55">
-        <v>60</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F56">
         <v>80</v>
@@ -2913,132 +2924,132 @@
         <v>80</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>60</v>
+      </c>
+      <c r="J57">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>80</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>80</v>
+      </c>
+      <c r="J58">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>80</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>60</v>
+      </c>
+      <c r="J59">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>124</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57">
-        <v>80</v>
-      </c>
-      <c r="G57">
-        <v>100</v>
-      </c>
-      <c r="H57">
-        <v>100</v>
-      </c>
-      <c r="I57">
-        <v>60</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58">
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <v>80</v>
-      </c>
-      <c r="H58">
-        <v>100</v>
-      </c>
-      <c r="I58">
-        <v>80</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59">
-        <v>80</v>
-      </c>
-      <c r="G59">
-        <v>100</v>
-      </c>
-      <c r="H59">
-        <v>100</v>
-      </c>
-      <c r="I59">
-        <v>60</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F60">
         <v>100</v>
@@ -3053,27 +3064,27 @@
         <v>40</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K60">
         <v>100</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F61">
         <v>80</v>
@@ -3094,21 +3105,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>100</v>
@@ -3129,21 +3140,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F63">
         <v>60</v>
@@ -3158,27 +3169,27 @@
         <v>20</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F64">
         <v>60</v>
@@ -3193,27 +3204,27 @@
         <v>40</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K64">
         <v>60</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F65">
         <v>100</v>
@@ -3228,27 +3239,27 @@
         <v>80</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K65">
         <v>100</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>80</v>
@@ -3263,27 +3274,27 @@
         <v>80</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K66">
         <v>80</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F67">
         <v>100</v>
@@ -3298,27 +3309,27 @@
         <v>60</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K67">
         <v>80</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>60</v>
@@ -3333,27 +3344,27 @@
         <v>80</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K68">
         <v>60</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3374,336 +3385,336 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>60</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>80</v>
+      </c>
+      <c r="I70">
+        <v>80</v>
+      </c>
+      <c r="J70">
+        <v>100</v>
+      </c>
+      <c r="K70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>80</v>
+      </c>
+      <c r="I71">
+        <v>80</v>
+      </c>
+      <c r="J71">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>80</v>
+      </c>
+      <c r="G72">
+        <v>80</v>
+      </c>
+      <c r="H72">
+        <v>60</v>
+      </c>
+      <c r="I72">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <v>100</v>
+      </c>
+      <c r="K72">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>150</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70">
-        <v>60</v>
-      </c>
-      <c r="G70">
-        <v>100</v>
-      </c>
-      <c r="H70">
-        <v>80</v>
-      </c>
-      <c r="I70">
-        <v>80</v>
-      </c>
-      <c r="J70">
-        <v>100</v>
-      </c>
-      <c r="K70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>80</v>
+      </c>
+      <c r="J73">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>152</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>153</v>
       </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-      <c r="G71">
-        <v>100</v>
-      </c>
-      <c r="H71">
-        <v>80</v>
-      </c>
-      <c r="I71">
-        <v>80</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>154</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72">
-        <v>80</v>
-      </c>
-      <c r="G72">
-        <v>80</v>
-      </c>
-      <c r="H72">
-        <v>60</v>
-      </c>
-      <c r="I72">
-        <v>60</v>
-      </c>
-      <c r="J72">
-        <v>100</v>
-      </c>
-      <c r="K72">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>60</v>
+      </c>
+      <c r="J75">
+        <v>100</v>
+      </c>
+      <c r="K75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>156</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>157</v>
       </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73">
-        <v>100</v>
-      </c>
-      <c r="G73">
-        <v>100</v>
-      </c>
-      <c r="H73">
-        <v>80</v>
-      </c>
-      <c r="I73">
-        <v>80</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>80</v>
+      </c>
+      <c r="J76">
+        <v>100</v>
+      </c>
+      <c r="K76">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>158</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74">
-        <v>100</v>
-      </c>
-      <c r="G74">
-        <v>100</v>
-      </c>
-      <c r="H74">
-        <v>100</v>
-      </c>
-      <c r="I74">
-        <v>100</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>80</v>
+      </c>
+      <c r="G77">
+        <v>80</v>
+      </c>
+      <c r="H77">
+        <v>80</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>100</v>
+      </c>
+      <c r="K77">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>160</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75">
-        <v>100</v>
-      </c>
-      <c r="G75">
-        <v>100</v>
-      </c>
-      <c r="H75">
-        <v>100</v>
-      </c>
-      <c r="I75">
-        <v>60</v>
-      </c>
-      <c r="J75">
-        <v>100</v>
-      </c>
-      <c r="K75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>162</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76">
-        <v>100</v>
-      </c>
-      <c r="G76">
-        <v>100</v>
-      </c>
-      <c r="H76">
-        <v>100</v>
-      </c>
-      <c r="I76">
-        <v>80</v>
-      </c>
-      <c r="J76">
-        <v>100</v>
-      </c>
-      <c r="K76">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77">
-        <v>80</v>
-      </c>
-      <c r="G77">
-        <v>80</v>
-      </c>
-      <c r="H77">
-        <v>80</v>
-      </c>
-      <c r="I77">
-        <v>100</v>
-      </c>
-      <c r="J77">
-        <v>100</v>
-      </c>
-      <c r="K77">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78">
-        <v>100</v>
-      </c>
-      <c r="G78">
-        <v>100</v>
-      </c>
-      <c r="H78">
-        <v>100</v>
-      </c>
-      <c r="I78">
-        <v>100</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" t="s">
-        <v>169</v>
-      </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>60</v>
@@ -3718,27 +3729,27 @@
         <v>40</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K79">
         <v>80</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <v>80</v>
@@ -3753,27 +3764,27 @@
         <v>40</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K80">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F81">
         <v>80</v>
@@ -3788,27 +3799,27 @@
         <v>80</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K81">
         <v>40</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>100</v>
@@ -3823,27 +3834,27 @@
         <v>80</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K82">
         <v>100</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>80</v>
@@ -3864,21 +3875,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -3893,27 +3904,27 @@
         <v>80</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K84">
         <v>100</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>100</v>
@@ -3928,27 +3939,27 @@
         <v>100</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K85">
         <v>60</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F86">
         <v>80</v>
@@ -3963,27 +3974,27 @@
         <v>60</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K86">
         <v>20</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F87">
         <v>80</v>
@@ -3998,27 +4009,27 @@
         <v>80</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K87">
         <v>80</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>100</v>
@@ -4033,27 +4044,27 @@
         <v>100</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K88">
         <v>80</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>100</v>
@@ -4074,21 +4085,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <v>60</v>
@@ -4103,27 +4114,27 @@
         <v>40</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K90">
         <v>100</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F91">
         <v>100</v>
@@ -4138,27 +4149,27 @@
         <v>100</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K91">
         <v>80</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>100</v>
@@ -4173,27 +4184,27 @@
         <v>40</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K92">
         <v>60</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F93">
         <v>80</v>
@@ -4214,21 +4225,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F94">
         <v>100</v>
@@ -4243,27 +4254,27 @@
         <v>60</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K94">
         <v>100</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F95">
         <v>100</v>
@@ -4278,132 +4289,132 @@
         <v>40</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K95">
         <v>80</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>60</v>
+      </c>
+      <c r="G96">
+        <v>60</v>
+      </c>
+      <c r="H96">
+        <v>80</v>
+      </c>
+      <c r="I96">
+        <v>80</v>
+      </c>
+      <c r="J96">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>80</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>100</v>
+      </c>
+      <c r="J97">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>80</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>60</v>
+      </c>
+      <c r="J98">
+        <v>100</v>
+      </c>
+      <c r="K98">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>202</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>203</v>
       </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96">
-        <v>60</v>
-      </c>
-      <c r="G96">
-        <v>60</v>
-      </c>
-      <c r="H96">
-        <v>80</v>
-      </c>
-      <c r="I96">
-        <v>80</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="G97">
-        <v>80</v>
-      </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="I97">
-        <v>100</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98">
-        <v>80</v>
-      </c>
-      <c r="G98">
-        <v>100</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
-      <c r="I98">
-        <v>60</v>
-      </c>
-      <c r="J98">
-        <v>100</v>
-      </c>
-      <c r="K98">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" t="s">
-        <v>209</v>
-      </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F99">
         <v>60</v>
@@ -4418,27 +4429,27 @@
         <v>80</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K99">
         <v>40</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4460,5 +4471,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>